--- a/real_estimates3.xlsx
+++ b/real_estimates3.xlsx
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.7413524</v>
+        <v>0.7308872</v>
       </c>
       <c r="C2">
-        <v>0.2220119</v>
+        <v>0.2285334</v>
       </c>
       <c r="D2">
-        <v>0.2285832</v>
+        <v>0.217861</v>
       </c>
       <c r="E2">
-        <v>0.9651876</v>
+        <v>0.9636114</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6836485</v>
+        <v>0.6406752999999999</v>
       </c>
       <c r="C3">
-        <v>0.221064</v>
+        <v>0.2064389</v>
       </c>
       <c r="D3">
-        <v>0.225687</v>
+        <v>0.2351756</v>
       </c>
       <c r="E3">
-        <v>0.941255</v>
+        <v>0.9118074</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.420327</v>
+        <v>0.4212215</v>
       </c>
       <c r="C4">
-        <v>0.125451</v>
+        <v>0.1244676</v>
       </c>
       <c r="D4">
-        <v>0.2090617</v>
+        <v>0.21108</v>
       </c>
       <c r="E4">
-        <v>0.6654614</v>
+        <v>0.6643869</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.6349261</v>
+        <v>0.6424756</v>
       </c>
       <c r="C5">
-        <v>0.1650967</v>
+        <v>0.1707139</v>
       </c>
       <c r="D5">
-        <v>0.3009859</v>
+        <v>0.29514</v>
       </c>
       <c r="E5">
-        <v>0.8753839</v>
+        <v>0.8852181</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.476278</v>
+        <v>0.4520901</v>
       </c>
       <c r="C6">
-        <v>0.1102132</v>
+        <v>0.105459</v>
       </c>
       <c r="D6">
-        <v>0.276682</v>
+        <v>0.2637264</v>
       </c>
       <c r="E6">
-        <v>0.6837505</v>
+        <v>0.6552576</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.8158076</v>
+        <v>0.826051</v>
       </c>
       <c r="C7">
-        <v>0.1582975</v>
+        <v>0.1610553</v>
       </c>
       <c r="D7">
-        <v>0.3597228</v>
+        <v>0.3454806</v>
       </c>
       <c r="E7">
-        <v>0.9721577</v>
+        <v>0.9771291</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.5384229</v>
+        <v>0.5205335</v>
       </c>
       <c r="C8">
-        <v>0.1141309</v>
+        <v>0.1110359</v>
       </c>
       <c r="D8">
-        <v>0.3216703</v>
+        <v>0.3122091</v>
       </c>
       <c r="E8">
-        <v>0.7415608</v>
+        <v>0.7219534</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.611724</v>
+        <v>0.6090015</v>
       </c>
       <c r="C9">
-        <v>0.1358536</v>
+        <v>0.1350024</v>
       </c>
       <c r="D9">
-        <v>0.3392807</v>
+        <v>0.3389195</v>
       </c>
       <c r="E9">
-        <v>0.8285848</v>
+        <v>0.8255407</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.5119066</v>
+        <v>0.5108143000000001</v>
       </c>
       <c r="C10">
-        <v>0.09122479999999999</v>
+        <v>0.09080249999999999</v>
       </c>
       <c r="D10">
-        <v>0.3389508</v>
+        <v>0.3387297</v>
       </c>
       <c r="E10">
-        <v>0.6820576</v>
+        <v>0.6803734</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.7347151</v>
+        <v>0.7226643</v>
       </c>
       <c r="C11">
-        <v>0.102956</v>
+        <v>0.102882</v>
       </c>
       <c r="D11">
-        <v>0.4958388</v>
+        <v>0.4878996</v>
       </c>
       <c r="E11">
-        <v>0.8863514</v>
+        <v>0.8769483</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.5634659</v>
+        <v>0.5545978</v>
       </c>
       <c r="C12">
-        <v>0.0823628</v>
+        <v>0.0811659</v>
       </c>
       <c r="D12">
-        <v>0.4010582</v>
+        <v>0.3953797</v>
       </c>
       <c r="E12">
-        <v>0.7133149</v>
+        <v>0.7033466</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.7618485</v>
+        <v>0.766118</v>
       </c>
       <c r="C13">
-        <v>0.1105723</v>
+        <v>0.112343</v>
       </c>
       <c r="D13">
-        <v>0.4920897</v>
+        <v>0.4894113</v>
       </c>
       <c r="E13">
-        <v>0.9135147</v>
+        <v>0.9179941</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.5937931</v>
+        <v>0.5807004</v>
       </c>
       <c r="C14">
-        <v>0.0889891</v>
+        <v>0.0887125</v>
       </c>
       <c r="D14">
-        <v>0.4149712</v>
+        <v>0.4040882</v>
       </c>
       <c r="E14">
-        <v>0.7507823</v>
+        <v>0.7388034</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.6733926</v>
+        <v>0.6629930000000001</v>
       </c>
       <c r="C15">
-        <v>0.09191539999999999</v>
+        <v>0.0921989</v>
       </c>
       <c r="D15">
-        <v>0.4761295</v>
+        <v>0.4670165</v>
       </c>
       <c r="E15">
-        <v>0.823856</v>
+        <v>0.8153939</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.7838626</v>
+        <v>0.7668864</v>
       </c>
       <c r="C16">
-        <v>0.1156094</v>
+        <v>0.1141264</v>
       </c>
       <c r="D16">
-        <v>0.4877184</v>
+        <v>0.4848956</v>
       </c>
       <c r="E16">
-        <v>0.9325021</v>
+        <v>0.919979</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.5593920999999999</v>
+        <v>0.55449</v>
       </c>
       <c r="C17">
-        <v>0.0882252</v>
+        <v>0.08699949999999999</v>
       </c>
       <c r="D17">
-        <v>0.3863006</v>
+        <v>0.3842742</v>
       </c>
       <c r="E17">
-        <v>0.7191561</v>
+        <v>0.7128168</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.6578991</v>
+        <v>0.6508266</v>
       </c>
       <c r="C18">
-        <v>0.1090229</v>
+        <v>0.1092636</v>
       </c>
       <c r="D18">
-        <v>0.4266631</v>
+        <v>0.420748</v>
       </c>
       <c r="E18">
-        <v>0.8324889</v>
+        <v>0.8270772</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.5344168</v>
+        <v>0.5276275</v>
       </c>
       <c r="C19">
-        <v>0.115343</v>
+        <v>0.1158888</v>
       </c>
       <c r="D19">
-        <v>0.3163258</v>
+        <v>0.3098699</v>
       </c>
       <c r="E19">
-        <v>0.7400982</v>
+        <v>0.7353568</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5130635</v>
+        <v>0.5091043</v>
       </c>
       <c r="C20">
-        <v>0.1193166</v>
+        <v>0.1212217</v>
       </c>
       <c r="D20">
-        <v>0.2923878</v>
+        <v>0.2861264</v>
       </c>
       <c r="E20">
-        <v>0.7287612999999999</v>
+        <v>0.7285176</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.4586601</v>
+        <v>0.4435554</v>
       </c>
       <c r="C21">
-        <v>0.1044491</v>
+        <v>0.1029068</v>
       </c>
       <c r="D21">
-        <v>0.2708617</v>
+        <v>0.2603888</v>
       </c>
       <c r="E21">
-        <v>0.6589861</v>
+        <v>0.6434704</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.7397859</v>
+        <v>0.6939998000000001</v>
       </c>
       <c r="C22">
-        <v>0.2897398</v>
+        <v>0.2635744</v>
       </c>
       <c r="D22">
-        <v>0.1295233</v>
+        <v>0.1660678</v>
       </c>
       <c r="E22">
-        <v>0.9819234</v>
+        <v>0.962728</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.1367773</v>
+        <v>0.1384399</v>
       </c>
       <c r="C23">
-        <v>0.0754307</v>
+        <v>0.0786954</v>
       </c>
       <c r="D23">
-        <v>0.0433347</v>
+        <v>0.0422296</v>
       </c>
       <c r="E23">
-        <v>0.3566034</v>
+        <v>0.3693212</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.9198898</v>
+        <v>0.9180255</v>
       </c>
       <c r="C24">
-        <v>0.0850192</v>
+        <v>0.0871664</v>
       </c>
       <c r="D24">
-        <v>0.5447785000000001</v>
+        <v>0.5363304</v>
       </c>
       <c r="E24">
-        <v>0.9910055</v>
+        <v>0.9908612999999999</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.896454</v>
+        <v>0.8802694</v>
       </c>
       <c r="C25">
-        <v>0.0952109</v>
+        <v>0.0948165</v>
       </c>
       <c r="D25">
-        <v>0.5369416</v>
+        <v>0.5576702</v>
       </c>
       <c r="E25">
-        <v>0.9847653</v>
+        <v>0.9772072000000001</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.7439135</v>
+        <v>0.750059</v>
       </c>
       <c r="C26">
-        <v>0.09680320000000001</v>
+        <v>0.09474630000000001</v>
       </c>
       <c r="D26">
-        <v>0.5176081</v>
+        <v>0.5270627</v>
       </c>
       <c r="E26">
-        <v>0.8871904</v>
+        <v>0.8898782</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.8744893</v>
+        <v>0.8810921</v>
       </c>
       <c r="C27">
-        <v>0.07824879999999999</v>
+        <v>0.0781023</v>
       </c>
       <c r="D27">
-        <v>0.6327239</v>
+        <v>0.6322047</v>
       </c>
       <c r="E27">
-        <v>0.9657288000000001</v>
+        <v>0.9696442</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.7846345</v>
+        <v>0.7728472</v>
       </c>
       <c r="C28">
-        <v>0.074556</v>
+        <v>0.07442459999999999</v>
       </c>
       <c r="D28">
-        <v>0.6054251</v>
+        <v>0.5971336</v>
       </c>
       <c r="E28">
-        <v>0.8963806</v>
+        <v>0.8864902</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.9466492</v>
+        <v>0.9514125</v>
       </c>
       <c r="C29">
-        <v>0.0537841</v>
+        <v>0.0524215</v>
       </c>
       <c r="D29">
-        <v>0.6875663</v>
+        <v>0.6795983</v>
       </c>
       <c r="E29">
-        <v>0.9930588</v>
+        <v>0.9944986</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.8237314999999999</v>
+        <v>0.8174056</v>
       </c>
       <c r="C30">
-        <v>0.0658556</v>
+        <v>0.06541859999999999</v>
       </c>
       <c r="D30">
-        <v>0.6576554</v>
+        <v>0.6547062</v>
       </c>
       <c r="E30">
-        <v>0.9191466</v>
+        <v>0.9135637</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.8632329</v>
+        <v>0.8652742</v>
       </c>
       <c r="C31">
-        <v>0.0672423</v>
+        <v>0.0659742</v>
       </c>
       <c r="D31">
-        <v>0.6739454</v>
+        <v>0.6793015999999999</v>
       </c>
       <c r="E31">
-        <v>0.9506743</v>
+        <v>0.951156</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.8077531</v>
+        <v>0.8115253</v>
       </c>
       <c r="C32">
-        <v>0.0570143</v>
+        <v>0.0560367</v>
       </c>
       <c r="D32">
-        <v>0.6716943</v>
+        <v>0.6774049</v>
       </c>
       <c r="E32">
-        <v>0.8961438</v>
+        <v>0.8982594</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1145,16 +1145,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.9173230999999999</v>
+        <v>0.9148545</v>
       </c>
       <c r="C33">
-        <v>0.0404219</v>
+        <v>0.0403842</v>
       </c>
       <c r="D33">
-        <v>0.7960653</v>
+        <v>0.7954774</v>
       </c>
       <c r="E33">
-        <v>0.9692655999999999</v>
+        <v>0.9674077</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.8379537</v>
+        <v>0.8369836</v>
       </c>
       <c r="C34">
-        <v>0.0456786</v>
+        <v>0.0450902</v>
       </c>
       <c r="D34">
-        <v>0.7278498</v>
+        <v>0.7287382</v>
       </c>
       <c r="E34">
-        <v>0.9090774</v>
+        <v>0.9075161</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.9276193</v>
+        <v>0.9310677000000001</v>
       </c>
       <c r="C35">
-        <v>0.0406821</v>
+        <v>0.0401556</v>
       </c>
       <c r="D35">
-        <v>0.7962617</v>
+        <v>0.7984933</v>
       </c>
       <c r="E35">
-        <v>0.9767579</v>
+        <v>0.9787415</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.8541476</v>
+        <v>0.8509837</v>
       </c>
       <c r="C36">
-        <v>0.0455427</v>
+        <v>0.0457852</v>
       </c>
       <c r="D36">
-        <v>0.7409646</v>
+        <v>0.7378211</v>
       </c>
       <c r="E36">
-        <v>0.9230147</v>
+        <v>0.9205615</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.8920072999999999</v>
+        <v>0.890255</v>
       </c>
       <c r="C37">
-        <v>0.0408512</v>
+        <v>0.0409147</v>
       </c>
       <c r="D37">
-        <v>0.7824882</v>
+        <v>0.781179</v>
       </c>
       <c r="E37">
-        <v>0.9499123</v>
+        <v>0.9485414</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.9356052</v>
+        <v>0.9313427</v>
       </c>
       <c r="C38">
-        <v>0.0414166</v>
+        <v>0.0411222</v>
       </c>
       <c r="D38">
-        <v>0.7906402</v>
+        <v>0.793642</v>
       </c>
       <c r="E38">
-        <v>0.9824248</v>
+        <v>0.9795274</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.8356945</v>
+        <v>0.836924</v>
       </c>
       <c r="C39">
-        <v>0.0484355</v>
+        <v>0.0476452</v>
       </c>
       <c r="D39">
-        <v>0.718119</v>
+        <v>0.7213749</v>
       </c>
       <c r="E39">
-        <v>0.9103504</v>
+        <v>0.9104989</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.8851151</v>
+        <v>0.8848683000000001</v>
       </c>
       <c r="C40">
-        <v>0.0503829</v>
+        <v>0.0500963</v>
       </c>
       <c r="D40">
-        <v>0.7447222999999999</v>
+        <v>0.7456528</v>
       </c>
       <c r="E40">
-        <v>0.9531541</v>
+        <v>0.9527169</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.8213800999999999</v>
+        <v>0.8216125</v>
       </c>
       <c r="C41">
-        <v>0.06687510000000001</v>
+        <v>0.06703969999999999</v>
       </c>
       <c r="D41">
-        <v>0.6530165</v>
+        <v>0.6526702</v>
       </c>
       <c r="E41">
-        <v>0.9182742</v>
+        <v>0.9186261</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.8084711999999999</v>
+        <v>0.8104764</v>
       </c>
       <c r="C42">
-        <v>0.0738771</v>
+        <v>0.0746801</v>
       </c>
       <c r="D42">
-        <v>0.6236304</v>
+        <v>0.6225032</v>
       </c>
       <c r="E42">
-        <v>0.9149186</v>
+        <v>0.917286</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.7724334</v>
+        <v>0.7667308</v>
       </c>
       <c r="C43">
-        <v>0.07079199999999999</v>
+        <v>0.0714906</v>
       </c>
       <c r="D43">
-        <v>0.6065304</v>
+        <v>0.6002495</v>
       </c>
       <c r="E43">
-        <v>0.8819945</v>
+        <v>0.8779738</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.9192869</v>
+        <v>0.9033989</v>
       </c>
       <c r="C44">
-        <v>0.1121011</v>
+        <v>0.108842</v>
       </c>
       <c r="D44">
-        <v>0.3708613</v>
+        <v>0.4479567</v>
       </c>
       <c r="E44">
-        <v>0.9954764</v>
+        <v>0.990807</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.3882966</v>
+        <v>0.3985235</v>
       </c>
       <c r="C45">
-        <v>0.1462588</v>
+        <v>0.1528049</v>
       </c>
       <c r="D45">
-        <v>0.1595762</v>
+        <v>0.1596175</v>
       </c>
       <c r="E45">
-        <v>0.6797077</v>
+        <v>0.698009</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.0559347</v>
+        <v>0.0613918</v>
       </c>
       <c r="C46">
-        <v>0.030592</v>
+        <v>0.0333777</v>
       </c>
       <c r="D46">
-        <v>0.0186791</v>
+        <v>0.020584</v>
       </c>
       <c r="E46">
-        <v>0.1557065</v>
+        <v>0.1691306</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1481,16 +1481,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.0898027</v>
+        <v>0.09907820000000001</v>
       </c>
       <c r="C47">
-        <v>0.0444914</v>
+        <v>0.0486233</v>
       </c>
       <c r="D47">
-        <v>0.032834</v>
+        <v>0.0364327</v>
       </c>
       <c r="E47">
-        <v>0.2228411</v>
+        <v>0.2423491</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.0377984</v>
+        <v>0.0392389</v>
       </c>
       <c r="C48">
-        <v>0.017326</v>
+        <v>0.0179788</v>
       </c>
       <c r="D48">
-        <v>0.0152071</v>
+        <v>0.015785</v>
       </c>
       <c r="E48">
-        <v>0.0908548</v>
+        <v>0.0942056</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1529,16 +1529,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.1447988</v>
+        <v>0.1474832</v>
       </c>
       <c r="C49">
-        <v>0.0586446</v>
+        <v>0.0593106</v>
       </c>
       <c r="D49">
-        <v>0.0627253</v>
+        <v>0.0642206</v>
       </c>
       <c r="E49">
-        <v>0.2999004</v>
+        <v>0.3036658</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.0481861</v>
+        <v>0.0520477</v>
       </c>
       <c r="C50">
-        <v>0.0210114</v>
+        <v>0.0226746</v>
       </c>
       <c r="D50">
-        <v>0.0202089</v>
+        <v>0.0218193</v>
       </c>
       <c r="E50">
-        <v>0.1105261</v>
+        <v>0.1190576</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.1059275</v>
+        <v>0.1115441</v>
       </c>
       <c r="C51">
-        <v>0.0381968</v>
+        <v>0.039884</v>
       </c>
       <c r="D51">
-        <v>0.0510025</v>
+        <v>0.0539686</v>
       </c>
       <c r="E51">
-        <v>0.2070939</v>
+        <v>0.2164872</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.116613</v>
+        <v>0.1239247</v>
       </c>
       <c r="C52">
-        <v>0.040522</v>
+        <v>0.0428456</v>
       </c>
       <c r="D52">
-        <v>0.0575466</v>
+        <v>0.0612674</v>
       </c>
       <c r="E52">
-        <v>0.2220236</v>
+        <v>0.2346438</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.0241066</v>
+        <v>0.0253563</v>
       </c>
       <c r="C53">
-        <v>0.0082868</v>
+        <v>0.0087198</v>
       </c>
       <c r="D53">
-        <v>0.0122334</v>
+        <v>0.0128611</v>
       </c>
       <c r="E53">
-        <v>0.0469555</v>
+        <v>0.0493842</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1649,16 +1649,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.2983766</v>
+        <v>0.3072428</v>
       </c>
       <c r="C54">
-        <v>0.0818883</v>
+        <v>0.0836141</v>
       </c>
       <c r="D54">
-        <v>0.164969</v>
+        <v>0.1703698</v>
       </c>
       <c r="E54">
-        <v>0.4779221</v>
+        <v>0.4892334</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.1320124</v>
+        <v>0.1386477</v>
       </c>
       <c r="C55">
-        <v>0.0386828</v>
+        <v>0.0401133</v>
       </c>
       <c r="D55">
-        <v>0.07276589999999999</v>
+        <v>0.0769229</v>
       </c>
       <c r="E55">
-        <v>0.227654</v>
+        <v>0.2371756</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.1545746</v>
+        <v>0.1614487</v>
       </c>
       <c r="C56">
-        <v>0.0444483</v>
+        <v>0.0461029</v>
       </c>
       <c r="D56">
-        <v>0.08581709999999999</v>
+        <v>0.08989320000000001</v>
       </c>
       <c r="E56">
-        <v>0.2625972</v>
+        <v>0.2728845</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.1203245</v>
+        <v>0.1213633</v>
       </c>
       <c r="C57">
-        <v>0.0338529</v>
+        <v>0.0341</v>
       </c>
       <c r="D57">
-        <v>0.0681013</v>
+        <v>0.0687301</v>
       </c>
       <c r="E57">
-        <v>0.2038353</v>
+        <v>0.2054121</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.1057037</v>
+        <v>0.1080337</v>
       </c>
       <c r="C58">
-        <v>0.0305161</v>
+        <v>0.0310507</v>
       </c>
       <c r="D58">
-        <v>0.0590714</v>
+        <v>0.0605086</v>
       </c>
       <c r="E58">
-        <v>0.182027</v>
+        <v>0.1855155</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.084521</v>
+        <v>0.087545</v>
       </c>
       <c r="C59">
-        <v>0.0238633</v>
+        <v>0.0246073</v>
       </c>
       <c r="D59">
-        <v>0.0480205</v>
+        <v>0.0498424</v>
       </c>
       <c r="E59">
-        <v>0.144553</v>
+        <v>0.1492865</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1793,16 +1793,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.0949599</v>
+        <v>0.1004976</v>
       </c>
       <c r="C60">
-        <v>0.0260592</v>
+        <v>0.027302</v>
       </c>
       <c r="D60">
-        <v>0.0547419</v>
+        <v>0.0582132</v>
       </c>
       <c r="E60">
-        <v>0.1597326</v>
+        <v>0.1680169</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.1556735</v>
+        <v>0.1613069</v>
       </c>
       <c r="C61">
-        <v>0.0422946</v>
+        <v>0.0437188</v>
       </c>
       <c r="D61">
-        <v>0.0893606</v>
+        <v>0.0926313</v>
       </c>
       <c r="E61">
-        <v>0.2572925</v>
+        <v>0.2659733</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.0946641</v>
+        <v>0.0976616</v>
       </c>
       <c r="C62">
-        <v>0.0295027</v>
+        <v>0.0302855</v>
       </c>
       <c r="D62">
-        <v>0.0505611</v>
+        <v>0.0522984</v>
       </c>
       <c r="E62">
-        <v>0.1703352</v>
+        <v>0.1751023</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.0622096</v>
+        <v>0.06343790000000001</v>
       </c>
       <c r="C63">
-        <v>0.0205255</v>
+        <v>0.0209079</v>
       </c>
       <c r="D63">
-        <v>0.0322142</v>
+        <v>0.0328663</v>
       </c>
       <c r="E63">
-        <v>0.1167645</v>
+        <v>0.1189491</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1889,16 +1889,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.0610269</v>
+        <v>0.0618365</v>
       </c>
       <c r="C64">
-        <v>0.0201528</v>
+        <v>0.0203894</v>
       </c>
       <c r="D64">
-        <v>0.0315909</v>
+        <v>0.0320371</v>
       </c>
       <c r="E64">
-        <v>0.1146441</v>
+        <v>0.1160312</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.1561512</v>
+        <v>0.1619008</v>
       </c>
       <c r="C65">
-        <v>0.0535447</v>
+        <v>0.0555903</v>
       </c>
       <c r="D65">
-        <v>0.0770154</v>
+        <v>0.0796477</v>
       </c>
       <c r="E65">
-        <v>0.2909673</v>
+        <v>0.3012902</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1937,16 +1937,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.0645679</v>
+        <v>0.069463</v>
       </c>
       <c r="C66">
-        <v>0.0298914</v>
+        <v>0.0320182</v>
       </c>
       <c r="D66">
-        <v>0.0254988</v>
+        <v>0.0274957</v>
       </c>
       <c r="E66">
-        <v>0.1540362</v>
+        <v>0.1646419</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1961,16 +1961,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.1186251</v>
+        <v>0.1204344</v>
       </c>
       <c r="C67">
-        <v>0.1416424</v>
+        <v>0.1461635</v>
       </c>
       <c r="D67">
-        <v>0.0093702</v>
+        <v>0.0090782</v>
       </c>
       <c r="E67">
-        <v>0.6569597</v>
+        <v>0.6717499</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.6398804</v>
+        <v>0.6581098</v>
       </c>
       <c r="C68">
-        <v>0.1299454</v>
+        <v>0.1271012</v>
       </c>
       <c r="D68">
-        <v>0.370416</v>
+        <v>0.388813</v>
       </c>
       <c r="E68">
-        <v>0.8429208</v>
+        <v>0.8534685</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.7474032</v>
+        <v>0.7639564</v>
       </c>
       <c r="C69">
-        <v>0.1003798</v>
+        <v>0.0959443</v>
       </c>
       <c r="D69">
-        <v>0.5106698</v>
+        <v>0.5328681</v>
       </c>
       <c r="E69">
-        <v>0.8934936</v>
+        <v>0.9017946999999999</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.5408835</v>
+        <v>0.5458572</v>
       </c>
       <c r="C70">
-        <v>0.1110002</v>
+        <v>0.1111044</v>
       </c>
       <c r="D70">
-        <v>0.3291132</v>
+        <v>0.3330325</v>
       </c>
       <c r="E70">
-        <v>0.7388498</v>
+        <v>0.7431476</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2057,16 +2057,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.8354649</v>
+        <v>0.8358303</v>
       </c>
       <c r="C71">
-        <v>0.0640952</v>
+        <v>0.0638227</v>
       </c>
       <c r="D71">
-        <v>0.670616</v>
+        <v>0.6717018</v>
       </c>
       <c r="E71">
-        <v>0.9268146</v>
+        <v>0.9268418</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2081,16 +2081,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.6028988</v>
+        <v>0.617715</v>
       </c>
       <c r="C72">
-        <v>0.1033205</v>
+        <v>0.1024156</v>
       </c>
       <c r="D72">
-        <v>0.3945327</v>
+        <v>0.4084942</v>
       </c>
       <c r="E72">
-        <v>0.7796135</v>
+        <v>0.7908265</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2105,16 +2105,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.78037</v>
+        <v>0.7870005</v>
       </c>
       <c r="C73">
-        <v>0.0673887</v>
+        <v>0.0660142</v>
       </c>
       <c r="D73">
-        <v>0.6217975</v>
+        <v>0.6306664</v>
       </c>
       <c r="E73">
-        <v>0.8847767</v>
+        <v>0.8888256</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.7983404</v>
+        <v>0.8063126</v>
       </c>
       <c r="C74">
-        <v>0.0594672</v>
+        <v>0.0579436</v>
       </c>
       <c r="D74">
-        <v>0.6574552</v>
+        <v>0.6679707</v>
       </c>
       <c r="E74">
-        <v>0.8908968</v>
+        <v>0.8959889</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.4255549</v>
+        <v>0.4336341</v>
       </c>
       <c r="C75">
-        <v>0.0750396</v>
+        <v>0.0758524</v>
       </c>
       <c r="D75">
-        <v>0.2887098</v>
+        <v>0.2947579</v>
       </c>
       <c r="E75">
-        <v>0.5748426</v>
+        <v>0.5837796</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.9272918999999999</v>
+        <v>0.9288372</v>
       </c>
       <c r="C76">
-        <v>0.0261764</v>
+        <v>0.0258196</v>
       </c>
       <c r="D76">
-        <v>0.8562943</v>
+        <v>0.8585556</v>
       </c>
       <c r="E76">
-        <v>0.9646609</v>
+        <v>0.9655963</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2201,16 +2201,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.820181</v>
+        <v>0.8256975</v>
       </c>
       <c r="C77">
-        <v>0.048503</v>
+        <v>0.0472058</v>
       </c>
       <c r="D77">
-        <v>0.7053676</v>
+        <v>0.7135237</v>
       </c>
       <c r="E77">
-        <v>0.8967995</v>
+        <v>0.9000977999999999</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2225,16 +2225,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.8457557999999999</v>
+        <v>0.8499891000000001</v>
       </c>
       <c r="C78">
-        <v>0.0422697</v>
+        <v>0.0414211</v>
       </c>
       <c r="D78">
-        <v>0.7439515</v>
+        <v>0.7498486</v>
       </c>
       <c r="E78">
-        <v>0.9118775</v>
+        <v>0.9146067</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2249,16 +2249,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>0.8040018</v>
+        <v>0.8025677</v>
       </c>
       <c r="C79">
-        <v>0.04602</v>
+        <v>0.0465453</v>
       </c>
       <c r="D79">
-        <v>0.6982764</v>
+        <v>0.695651</v>
       </c>
       <c r="E79">
-        <v>0.879095</v>
+        <v>0.8784857</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2273,16 +2273,16 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.7799644999999999</v>
+        <v>0.7809171</v>
       </c>
       <c r="C80">
-        <v>0.0513784</v>
+        <v>0.0512526</v>
       </c>
       <c r="D80">
-        <v>0.6634457</v>
+        <v>0.6645989</v>
       </c>
       <c r="E80">
-        <v>0.8643889</v>
+        <v>0.8650849</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2297,16 +2297,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>0.7346626000000001</v>
+        <v>0.7384675000000001</v>
       </c>
       <c r="C81">
-        <v>0.0551419</v>
+        <v>0.0547643</v>
       </c>
       <c r="D81">
-        <v>0.6139562</v>
+        <v>0.6182782</v>
       </c>
       <c r="E81">
-        <v>0.8281887999999999</v>
+        <v>0.8311487</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2321,16 +2321,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.7588404</v>
+        <v>0.7667941</v>
       </c>
       <c r="C82">
-        <v>0.0532042</v>
+        <v>0.0518285</v>
       </c>
       <c r="D82">
-        <v>0.6402617</v>
+        <v>0.6507233</v>
       </c>
       <c r="E82">
-        <v>0.8476340999999999</v>
+        <v>0.8530058</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2345,16 +2345,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.8468464</v>
+        <v>0.8498555</v>
       </c>
       <c r="C83">
-        <v>0.0396869</v>
+        <v>0.0394532</v>
       </c>
       <c r="D83">
-        <v>0.7521901</v>
+        <v>0.7553685</v>
       </c>
       <c r="E83">
-        <v>0.9096879</v>
+        <v>0.9120947</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2369,16 +2369,16 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.7582089</v>
+        <v>0.7610642</v>
       </c>
       <c r="C84">
-        <v>0.0599009</v>
+        <v>0.0593686</v>
       </c>
       <c r="D84">
-        <v>0.6230401</v>
+        <v>0.6268264</v>
       </c>
       <c r="E84">
-        <v>0.8561036</v>
+        <v>0.8579564</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2393,16 +2393,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.6654859</v>
+        <v>0.6659335</v>
       </c>
       <c r="C85">
-        <v>0.0714751</v>
+        <v>0.07155499999999999</v>
       </c>
       <c r="D85">
-        <v>0.5146305</v>
+        <v>0.5148522</v>
       </c>
       <c r="E85">
-        <v>0.7887052</v>
+        <v>0.7892272</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2417,16 +2417,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>0.6609174</v>
+        <v>0.6598381</v>
       </c>
       <c r="C86">
-        <v>0.0718338</v>
+        <v>0.07214569999999999</v>
       </c>
       <c r="D86">
-        <v>0.5097826</v>
+        <v>0.5081414</v>
       </c>
       <c r="E86">
-        <v>0.7850994</v>
+        <v>0.7845831</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.8473166</v>
+        <v>0.8504138999999999</v>
       </c>
       <c r="C87">
-        <v>0.050277</v>
+        <v>0.0499979</v>
       </c>
       <c r="D87">
-        <v>0.7215173</v>
+        <v>0.7246217</v>
       </c>
       <c r="E87">
-        <v>0.9224003</v>
+        <v>0.9247146000000001</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2465,16 +2465,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>0.6742709</v>
+        <v>0.6871947</v>
       </c>
       <c r="C88">
-        <v>0.1022696</v>
+        <v>0.1005293</v>
       </c>
       <c r="D88">
-        <v>0.4538568</v>
+        <v>0.4676465</v>
       </c>
       <c r="E88">
-        <v>0.8375664</v>
+        <v>0.8460133</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2489,16 +2489,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.8014436</v>
+        <v>0.8011792</v>
       </c>
       <c r="C89">
-        <v>0.215698</v>
+        <v>0.2201284</v>
       </c>
       <c r="D89">
-        <v>0.2207372</v>
+        <v>0.2116691</v>
       </c>
       <c r="E89">
-        <v>0.9829106</v>
+        <v>0.9837336</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2537,16 +2537,16 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C91">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D91">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E91">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="B92">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C92">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D92">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E92">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2585,16 +2585,16 @@
         </is>
       </c>
       <c r="B93">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C93">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D93">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E93">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2609,16 +2609,16 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C94">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D94">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E94">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B95">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C95">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D95">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E95">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2657,16 +2657,16 @@
         </is>
       </c>
       <c r="B96">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C96">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D96">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E96">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2681,16 +2681,16 @@
         </is>
       </c>
       <c r="B97">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C97">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D97">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E97">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2705,16 +2705,16 @@
         </is>
       </c>
       <c r="B98">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C98">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D98">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E98">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2729,16 +2729,16 @@
         </is>
       </c>
       <c r="B99">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C99">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D99">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E99">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2753,16 +2753,16 @@
         </is>
       </c>
       <c r="B100">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C100">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D100">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E100">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B101">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C101">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D101">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E101">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2801,16 +2801,16 @@
         </is>
       </c>
       <c r="B102">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C102">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D102">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E102">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2825,16 +2825,16 @@
         </is>
       </c>
       <c r="B103">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C103">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D103">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E103">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2849,16 +2849,16 @@
         </is>
       </c>
       <c r="B104">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C104">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D104">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E104">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2873,16 +2873,16 @@
         </is>
       </c>
       <c r="B105">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C105">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D105">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E105">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="B106">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C106">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D106">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E106">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2921,16 +2921,16 @@
         </is>
       </c>
       <c r="B107">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C107">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D107">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E107">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2945,16 +2945,16 @@
         </is>
       </c>
       <c r="B108">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C108">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D108">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E108">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2969,16 +2969,16 @@
         </is>
       </c>
       <c r="B109">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C109">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D109">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E109">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2993,16 +2993,16 @@
         </is>
       </c>
       <c r="B110">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C110">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D110">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E110">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3017,16 +3017,16 @@
         </is>
       </c>
       <c r="B111">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C111">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D111">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E111">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3041,16 +3041,16 @@
         </is>
       </c>
       <c r="B112">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C112">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D112">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E112">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3065,16 +3065,16 @@
         </is>
       </c>
       <c r="B113">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C113">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D113">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E113">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B114">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C114">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D114">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E114">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="B115">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C115">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D115">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E115">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3137,16 +3137,16 @@
         </is>
       </c>
       <c r="B116">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C116">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D116">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E116">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3161,16 +3161,16 @@
         </is>
       </c>
       <c r="B117">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C117">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D117">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E117">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3185,16 +3185,16 @@
         </is>
       </c>
       <c r="B118">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C118">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D118">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E118">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="B119">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C119">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D119">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E119">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3233,16 +3233,16 @@
         </is>
       </c>
       <c r="B120">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C120">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D120">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E120">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3257,16 +3257,16 @@
         </is>
       </c>
       <c r="B121">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C121">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D121">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E121">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3281,16 +3281,16 @@
         </is>
       </c>
       <c r="B122">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C122">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D122">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E122">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3305,16 +3305,16 @@
         </is>
       </c>
       <c r="B123">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C123">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D123">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E123">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3329,16 +3329,16 @@
         </is>
       </c>
       <c r="B124">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C124">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D124">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E124">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3353,16 +3353,16 @@
         </is>
       </c>
       <c r="B125">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C125">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D125">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E125">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3377,16 +3377,16 @@
         </is>
       </c>
       <c r="B126">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C126">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D126">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E126">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3401,16 +3401,16 @@
         </is>
       </c>
       <c r="B127">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C127">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D127">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E127">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3425,16 +3425,16 @@
         </is>
       </c>
       <c r="B128">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C128">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D128">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E128">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3449,16 +3449,16 @@
         </is>
       </c>
       <c r="B129">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C129">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D129">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E129">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3473,16 +3473,16 @@
         </is>
       </c>
       <c r="B130">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C130">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D130">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E130">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3497,16 +3497,16 @@
         </is>
       </c>
       <c r="B131">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C131">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D131">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E131">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="B132">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C132">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D132">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E132">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B133">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C133">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D133">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E133">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3569,16 +3569,16 @@
         </is>
       </c>
       <c r="B134">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C134">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D134">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E134">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3593,16 +3593,16 @@
         </is>
       </c>
       <c r="B135">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C135">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D135">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E135">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3617,16 +3617,16 @@
         </is>
       </c>
       <c r="B136">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C136">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D136">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E136">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3641,16 +3641,16 @@
         </is>
       </c>
       <c r="B137">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C137">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D137">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E137">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3665,16 +3665,16 @@
         </is>
       </c>
       <c r="B138">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C138">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D138">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E138">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3689,16 +3689,16 @@
         </is>
       </c>
       <c r="B139">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C139">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D139">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E139">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3713,16 +3713,16 @@
         </is>
       </c>
       <c r="B140">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C140">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D140">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E140">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B141">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C141">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D141">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E141">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3761,16 +3761,16 @@
         </is>
       </c>
       <c r="B142">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C142">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D142">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E142">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3785,16 +3785,16 @@
         </is>
       </c>
       <c r="B143">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C143">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D143">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E143">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3809,16 +3809,16 @@
         </is>
       </c>
       <c r="B144">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C144">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D144">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E144">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="B145">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C145">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D145">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E145">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B146">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C146">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D146">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E146">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3881,16 +3881,16 @@
         </is>
       </c>
       <c r="B147">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C147">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D147">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E147">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3905,16 +3905,16 @@
         </is>
       </c>
       <c r="B148">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C148">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D148">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E148">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B149">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C149">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D149">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E149">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3953,16 +3953,16 @@
         </is>
       </c>
       <c r="B150">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C150">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D150">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E150">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3977,16 +3977,16 @@
         </is>
       </c>
       <c r="B151">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C151">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D151">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E151">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B152">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C152">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D152">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E152">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4025,16 +4025,16 @@
         </is>
       </c>
       <c r="B153">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C153">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D153">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E153">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4049,16 +4049,16 @@
         </is>
       </c>
       <c r="B154">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C154">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D154">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E154">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4073,16 +4073,16 @@
         </is>
       </c>
       <c r="B155">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C155">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D155">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E155">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4097,16 +4097,16 @@
         </is>
       </c>
       <c r="B156">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C156">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D156">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E156">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4121,16 +4121,16 @@
         </is>
       </c>
       <c r="B157">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C157">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D157">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E157">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4145,16 +4145,16 @@
         </is>
       </c>
       <c r="B158">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C158">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D158">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E158">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4169,16 +4169,16 @@
         </is>
       </c>
       <c r="B159">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C159">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D159">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E159">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="B160">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C160">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D160">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E160">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4217,16 +4217,16 @@
         </is>
       </c>
       <c r="B161">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C161">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D161">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E161">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4241,16 +4241,16 @@
         </is>
       </c>
       <c r="B162">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C162">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D162">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E162">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4265,16 +4265,16 @@
         </is>
       </c>
       <c r="B163">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C163">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D163">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E163">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4289,16 +4289,16 @@
         </is>
       </c>
       <c r="B164">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C164">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D164">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E164">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B165">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C165">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D165">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E165">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4337,16 +4337,16 @@
         </is>
       </c>
       <c r="B166">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C166">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D166">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E166">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4361,16 +4361,16 @@
         </is>
       </c>
       <c r="B167">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C167">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D167">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E167">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B168">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C168">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D168">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E168">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4409,16 +4409,16 @@
         </is>
       </c>
       <c r="B169">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C169">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D169">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E169">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4433,16 +4433,16 @@
         </is>
       </c>
       <c r="B170">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C170">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D170">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E170">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B171">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C171">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D171">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E171">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4481,16 +4481,16 @@
         </is>
       </c>
       <c r="B172">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C172">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D172">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E172">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4505,16 +4505,16 @@
         </is>
       </c>
       <c r="B173">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C173">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D173">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E173">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4529,16 +4529,16 @@
         </is>
       </c>
       <c r="B174">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C174">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D174">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E174">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4553,16 +4553,16 @@
         </is>
       </c>
       <c r="B175">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C175">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D175">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E175">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4577,16 +4577,16 @@
         </is>
       </c>
       <c r="B176">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C176">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D176">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E176">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4601,16 +4601,16 @@
         </is>
       </c>
       <c r="B177">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C177">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D177">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E177">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B178">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C178">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D178">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E178">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4649,16 +4649,16 @@
         </is>
       </c>
       <c r="B179">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C179">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D179">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E179">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4673,16 +4673,16 @@
         </is>
       </c>
       <c r="B180">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C180">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D180">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E180">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4697,16 +4697,16 @@
         </is>
       </c>
       <c r="B181">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C181">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D181">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E181">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4721,16 +4721,16 @@
         </is>
       </c>
       <c r="B182">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C182">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D182">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E182">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4745,16 +4745,16 @@
         </is>
       </c>
       <c r="B183">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C183">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D183">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E183">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4769,16 +4769,16 @@
         </is>
       </c>
       <c r="B184">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C184">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D184">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E184">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4793,16 +4793,16 @@
         </is>
       </c>
       <c r="B185">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C185">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D185">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E185">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4817,16 +4817,16 @@
         </is>
       </c>
       <c r="B186">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C186">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D186">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E186">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4841,16 +4841,16 @@
         </is>
       </c>
       <c r="B187">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C187">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D187">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E187">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4865,16 +4865,16 @@
         </is>
       </c>
       <c r="B188">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C188">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D188">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E188">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4889,16 +4889,16 @@
         </is>
       </c>
       <c r="B189">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C189">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D189">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E189">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B190">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C190">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D190">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E190">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4937,16 +4937,16 @@
         </is>
       </c>
       <c r="B191">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C191">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D191">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E191">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4961,16 +4961,16 @@
         </is>
       </c>
       <c r="B192">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C192">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D192">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E192">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4985,16 +4985,16 @@
         </is>
       </c>
       <c r="B193">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C193">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D193">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E193">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5009,16 +5009,16 @@
         </is>
       </c>
       <c r="B194">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C194">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D194">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E194">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5033,16 +5033,16 @@
         </is>
       </c>
       <c r="B195">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C195">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D195">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E195">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5057,16 +5057,16 @@
         </is>
       </c>
       <c r="B196">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C196">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D196">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E196">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5081,16 +5081,16 @@
         </is>
       </c>
       <c r="B197">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C197">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D197">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E197">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5105,16 +5105,16 @@
         </is>
       </c>
       <c r="B198">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C198">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D198">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E198">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5129,16 +5129,16 @@
         </is>
       </c>
       <c r="B199">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C199">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D199">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E199">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5153,16 +5153,16 @@
         </is>
       </c>
       <c r="B200">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C200">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D200">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E200">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5177,16 +5177,16 @@
         </is>
       </c>
       <c r="B201">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C201">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D201">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E201">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5201,16 +5201,16 @@
         </is>
       </c>
       <c r="B202">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C202">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D202">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E202">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5225,16 +5225,16 @@
         </is>
       </c>
       <c r="B203">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C203">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D203">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E203">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5249,16 +5249,16 @@
         </is>
       </c>
       <c r="B204">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C204">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D204">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E204">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5273,16 +5273,16 @@
         </is>
       </c>
       <c r="B205">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C205">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D205">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E205">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="B206">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C206">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D206">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E206">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5321,16 +5321,16 @@
         </is>
       </c>
       <c r="B207">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C207">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D207">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E207">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5345,16 +5345,16 @@
         </is>
       </c>
       <c r="B208">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C208">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D208">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E208">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5369,16 +5369,16 @@
         </is>
       </c>
       <c r="B209">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C209">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D209">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E209">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5393,16 +5393,16 @@
         </is>
       </c>
       <c r="B210">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C210">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D210">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E210">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5417,16 +5417,16 @@
         </is>
       </c>
       <c r="B211">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C211">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D211">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E211">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5441,16 +5441,16 @@
         </is>
       </c>
       <c r="B212">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C212">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D212">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E212">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5465,16 +5465,16 @@
         </is>
       </c>
       <c r="B213">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C213">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D213">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E213">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B214">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C214">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D214">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E214">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5513,16 +5513,16 @@
         </is>
       </c>
       <c r="B215">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C215">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D215">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E215">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5537,16 +5537,16 @@
         </is>
       </c>
       <c r="B216">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C216">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D216">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E216">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5561,16 +5561,16 @@
         </is>
       </c>
       <c r="B217">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C217">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D217">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E217">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5585,16 +5585,16 @@
         </is>
       </c>
       <c r="B218">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C218">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D218">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E218">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5609,16 +5609,16 @@
         </is>
       </c>
       <c r="B219">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C219">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D219">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E219">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5633,16 +5633,16 @@
         </is>
       </c>
       <c r="B220">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C220">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D220">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E220">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5657,16 +5657,16 @@
         </is>
       </c>
       <c r="B221">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C221">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D221">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E221">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5681,16 +5681,16 @@
         </is>
       </c>
       <c r="B222">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C222">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D222">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E222">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5705,16 +5705,16 @@
         </is>
       </c>
       <c r="B223">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C223">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D223">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E223">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5729,16 +5729,16 @@
         </is>
       </c>
       <c r="B224">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C224">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D224">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E224">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5753,16 +5753,16 @@
         </is>
       </c>
       <c r="B225">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C225">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D225">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E225">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B226">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C226">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D226">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E226">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5801,16 +5801,16 @@
         </is>
       </c>
       <c r="B227">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C227">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D227">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E227">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="B228">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C228">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D228">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E228">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5849,16 +5849,16 @@
         </is>
       </c>
       <c r="B229">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C229">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D229">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E229">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5873,16 +5873,16 @@
         </is>
       </c>
       <c r="B230">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C230">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D230">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E230">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5897,16 +5897,16 @@
         </is>
       </c>
       <c r="B231">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C231">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D231">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E231">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5921,16 +5921,16 @@
         </is>
       </c>
       <c r="B232">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C232">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D232">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E232">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5945,16 +5945,16 @@
         </is>
       </c>
       <c r="B233">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C233">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D233">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E233">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5969,16 +5969,16 @@
         </is>
       </c>
       <c r="B234">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C234">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D234">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E234">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5993,16 +5993,16 @@
         </is>
       </c>
       <c r="B235">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C235">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D235">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E235">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6017,16 +6017,16 @@
         </is>
       </c>
       <c r="B236">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C236">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D236">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E236">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -6041,16 +6041,16 @@
         </is>
       </c>
       <c r="B237">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C237">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D237">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E237">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6065,16 +6065,16 @@
         </is>
       </c>
       <c r="B238">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C238">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D238">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E238">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6089,16 +6089,16 @@
         </is>
       </c>
       <c r="B239">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C239">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D239">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E239">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6113,16 +6113,16 @@
         </is>
       </c>
       <c r="B240">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C240">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D240">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E240">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6137,16 +6137,16 @@
         </is>
       </c>
       <c r="B241">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C241">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D241">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E241">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6161,16 +6161,16 @@
         </is>
       </c>
       <c r="B242">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C242">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D242">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E242">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6185,16 +6185,16 @@
         </is>
       </c>
       <c r="B243">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C243">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D243">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E243">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6209,16 +6209,16 @@
         </is>
       </c>
       <c r="B244">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C244">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D244">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E244">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6233,16 +6233,16 @@
         </is>
       </c>
       <c r="B245">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C245">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D245">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E245">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6257,16 +6257,16 @@
         </is>
       </c>
       <c r="B246">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C246">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D246">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E246">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B247">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C247">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D247">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E247">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6305,16 +6305,16 @@
         </is>
       </c>
       <c r="B248">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C248">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D248">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E248">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6329,16 +6329,16 @@
         </is>
       </c>
       <c r="B249">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C249">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D249">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E249">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6353,16 +6353,16 @@
         </is>
       </c>
       <c r="B250">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C250">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D250">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E250">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6377,16 +6377,16 @@
         </is>
       </c>
       <c r="B251">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C251">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D251">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E251">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6401,16 +6401,16 @@
         </is>
       </c>
       <c r="B252">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C252">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D252">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E252">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6425,16 +6425,16 @@
         </is>
       </c>
       <c r="B253">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C253">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D253">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E253">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6449,16 +6449,16 @@
         </is>
       </c>
       <c r="B254">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C254">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D254">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E254">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6473,16 +6473,16 @@
         </is>
       </c>
       <c r="B255">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C255">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D255">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E255">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6497,16 +6497,16 @@
         </is>
       </c>
       <c r="B256">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C256">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D256">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E256">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6521,16 +6521,16 @@
         </is>
       </c>
       <c r="B257">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C257">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D257">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E257">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6545,16 +6545,16 @@
         </is>
       </c>
       <c r="B258">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C258">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D258">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E258">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6569,16 +6569,16 @@
         </is>
       </c>
       <c r="B259">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C259">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D259">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E259">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6593,16 +6593,16 @@
         </is>
       </c>
       <c r="B260">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C260">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D260">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E260">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6617,16 +6617,16 @@
         </is>
       </c>
       <c r="B261">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C261">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D261">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E261">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6641,16 +6641,16 @@
         </is>
       </c>
       <c r="B262">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C262">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D262">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E262">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6665,16 +6665,16 @@
         </is>
       </c>
       <c r="B263">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C263">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D263">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E263">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6689,16 +6689,16 @@
         </is>
       </c>
       <c r="B264">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C264">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D264">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E264">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6713,16 +6713,16 @@
         </is>
       </c>
       <c r="B265">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C265">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D265">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E265">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6737,16 +6737,16 @@
         </is>
       </c>
       <c r="B266">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C266">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D266">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E266">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6761,16 +6761,16 @@
         </is>
       </c>
       <c r="B267">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C267">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D267">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E267">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6785,16 +6785,16 @@
         </is>
       </c>
       <c r="B268">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C268">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D268">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E268">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6809,16 +6809,16 @@
         </is>
       </c>
       <c r="B269">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C269">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D269">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E269">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6833,16 +6833,16 @@
         </is>
       </c>
       <c r="B270">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C270">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D270">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E270">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6857,16 +6857,16 @@
         </is>
       </c>
       <c r="B271">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C271">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D271">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E271">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6881,16 +6881,16 @@
         </is>
       </c>
       <c r="B272">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C272">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D272">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E272">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6905,16 +6905,16 @@
         </is>
       </c>
       <c r="B273">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C273">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D273">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E273">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6929,16 +6929,16 @@
         </is>
       </c>
       <c r="B274">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C274">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D274">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E274">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6953,16 +6953,16 @@
         </is>
       </c>
       <c r="B275">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C275">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D275">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E275">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6977,16 +6977,16 @@
         </is>
       </c>
       <c r="B276">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C276">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D276">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E276">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -7001,16 +7001,16 @@
         </is>
       </c>
       <c r="B277">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C277">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D277">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E277">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7025,16 +7025,16 @@
         </is>
       </c>
       <c r="B278">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C278">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D278">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E278">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7049,16 +7049,16 @@
         </is>
       </c>
       <c r="B279">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C279">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D279">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E279">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7073,16 +7073,16 @@
         </is>
       </c>
       <c r="B280">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C280">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D280">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E280">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -7097,16 +7097,16 @@
         </is>
       </c>
       <c r="B281">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C281">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D281">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E281">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7121,16 +7121,16 @@
         </is>
       </c>
       <c r="B282">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C282">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D282">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E282">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -7145,16 +7145,16 @@
         </is>
       </c>
       <c r="B283">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C283">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D283">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E283">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B284">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C284">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D284">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E284">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="B285">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C285">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D285">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E285">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7217,16 +7217,16 @@
         </is>
       </c>
       <c r="B286">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C286">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D286">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E286">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7241,16 +7241,16 @@
         </is>
       </c>
       <c r="B287">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C287">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D287">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E287">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -7265,16 +7265,16 @@
         </is>
       </c>
       <c r="B288">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C288">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D288">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E288">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7289,16 +7289,16 @@
         </is>
       </c>
       <c r="B289">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C289">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D289">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E289">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7313,16 +7313,16 @@
         </is>
       </c>
       <c r="B290">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C290">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D290">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E290">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7337,16 +7337,16 @@
         </is>
       </c>
       <c r="B291">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C291">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D291">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E291">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7361,16 +7361,16 @@
         </is>
       </c>
       <c r="B292">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C292">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D292">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E292">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B293">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C293">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D293">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E293">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7409,16 +7409,16 @@
         </is>
       </c>
       <c r="B294">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C294">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D294">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E294">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7433,16 +7433,16 @@
         </is>
       </c>
       <c r="B295">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C295">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D295">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E295">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7457,16 +7457,16 @@
         </is>
       </c>
       <c r="B296">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C296">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D296">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E296">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7481,16 +7481,16 @@
         </is>
       </c>
       <c r="B297">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C297">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D297">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E297">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7505,16 +7505,16 @@
         </is>
       </c>
       <c r="B298">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C298">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D298">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E298">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7529,16 +7529,16 @@
         </is>
       </c>
       <c r="B299">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C299">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D299">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E299">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7553,16 +7553,16 @@
         </is>
       </c>
       <c r="B300">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C300">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D300">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E300">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7577,16 +7577,16 @@
         </is>
       </c>
       <c r="B301">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C301">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D301">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E301">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7601,16 +7601,16 @@
         </is>
       </c>
       <c r="B302">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C302">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D302">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E302">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7625,16 +7625,16 @@
         </is>
       </c>
       <c r="B303">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C303">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D303">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E303">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B304">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C304">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D304">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E304">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7673,16 +7673,16 @@
         </is>
       </c>
       <c r="B305">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C305">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D305">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E305">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7697,16 +7697,16 @@
         </is>
       </c>
       <c r="B306">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C306">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D306">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E306">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7721,16 +7721,16 @@
         </is>
       </c>
       <c r="B307">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C307">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D307">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E307">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7745,16 +7745,16 @@
         </is>
       </c>
       <c r="B308">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C308">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D308">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E308">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7769,16 +7769,16 @@
         </is>
       </c>
       <c r="B309">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C309">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D309">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E309">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7793,16 +7793,16 @@
         </is>
       </c>
       <c r="B310">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C310">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D310">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E310">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7817,16 +7817,16 @@
         </is>
       </c>
       <c r="B311">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C311">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D311">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E311">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7841,16 +7841,16 @@
         </is>
       </c>
       <c r="B312">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C312">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D312">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E312">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7865,16 +7865,16 @@
         </is>
       </c>
       <c r="B313">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C313">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D313">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E313">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7889,16 +7889,16 @@
         </is>
       </c>
       <c r="B314">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C314">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D314">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E314">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7913,16 +7913,16 @@
         </is>
       </c>
       <c r="B315">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C315">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D315">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E315">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7937,16 +7937,16 @@
         </is>
       </c>
       <c r="B316">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C316">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D316">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E316">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -7961,16 +7961,16 @@
         </is>
       </c>
       <c r="B317">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C317">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D317">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E317">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7985,16 +7985,16 @@
         </is>
       </c>
       <c r="B318">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C318">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D318">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E318">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8009,16 +8009,16 @@
         </is>
       </c>
       <c r="B319">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C319">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D319">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E319">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8033,16 +8033,16 @@
         </is>
       </c>
       <c r="B320">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C320">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D320">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E320">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -8057,16 +8057,16 @@
         </is>
       </c>
       <c r="B321">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C321">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D321">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E321">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -8081,16 +8081,16 @@
         </is>
       </c>
       <c r="B322">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C322">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D322">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E322">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -8105,16 +8105,16 @@
         </is>
       </c>
       <c r="B323">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C323">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D323">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E323">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -8129,16 +8129,16 @@
         </is>
       </c>
       <c r="B324">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C324">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D324">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E324">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -8153,16 +8153,16 @@
         </is>
       </c>
       <c r="B325">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C325">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D325">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E325">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -8177,16 +8177,16 @@
         </is>
       </c>
       <c r="B326">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C326">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D326">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E326">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -8201,16 +8201,16 @@
         </is>
       </c>
       <c r="B327">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C327">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D327">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E327">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -8225,16 +8225,16 @@
         </is>
       </c>
       <c r="B328">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C328">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D328">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E328">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -8249,16 +8249,16 @@
         </is>
       </c>
       <c r="B329">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C329">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D329">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E329">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -8273,16 +8273,16 @@
         </is>
       </c>
       <c r="B330">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C330">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D330">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E330">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -8297,16 +8297,16 @@
         </is>
       </c>
       <c r="B331">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C331">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D331">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E331">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -8321,16 +8321,16 @@
         </is>
       </c>
       <c r="B332">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C332">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D332">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E332">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -8345,16 +8345,16 @@
         </is>
       </c>
       <c r="B333">
-        <v>0.1500407</v>
+        <v>0.1668295</v>
       </c>
       <c r="C333">
-        <v>0.0541277</v>
+        <v>0.0460968</v>
       </c>
       <c r="D333">
-        <v>0.0713472</v>
+        <v>0.094638</v>
       </c>
       <c r="E333">
-        <v>0.2885603</v>
+        <v>0.2772276</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -8369,16 +8369,16 @@
         </is>
       </c>
       <c r="B334">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C334">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D334">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E334">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -8393,16 +8393,16 @@
         </is>
       </c>
       <c r="B335">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C335">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D335">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E335">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -8417,16 +8417,16 @@
         </is>
       </c>
       <c r="B336">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C336">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D336">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E336">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -8441,16 +8441,16 @@
         </is>
       </c>
       <c r="B337">
-        <v>0.1702374</v>
+        <v>0.1668295</v>
       </c>
       <c r="C337">
-        <v>0.0685106</v>
+        <v>0.0460968</v>
       </c>
       <c r="D337">
-        <v>0.07347049999999999</v>
+        <v>0.094638</v>
       </c>
       <c r="E337">
-        <v>0.3467559</v>
+        <v>0.2772276</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -8465,16 +8465,16 @@
         </is>
       </c>
       <c r="B338">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C338">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D338">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E338">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -8489,16 +8489,16 @@
         </is>
       </c>
       <c r="B339">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C339">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D339">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E339">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -8513,16 +8513,16 @@
         </is>
       </c>
       <c r="B340">
-        <v>0.2341278</v>
+        <v>0.227379</v>
       </c>
       <c r="C340">
-        <v>0.0551424</v>
+        <v>0.0578331</v>
       </c>
       <c r="D340">
-        <v>0.1433315</v>
+        <v>0.1337267</v>
       </c>
       <c r="E340">
-        <v>0.3583793</v>
+        <v>0.3594069</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -8537,16 +8537,16 @@
         </is>
       </c>
       <c r="B341">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C341">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D341">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E341">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -8561,16 +8561,16 @@
         </is>
       </c>
       <c r="B342">
-        <v>0.1177468</v>
+        <v>0.2312923</v>
       </c>
       <c r="C342">
-        <v>0.014941</v>
+        <v>0.0385308</v>
       </c>
       <c r="D342">
-        <v>0.09146799999999999</v>
+        <v>0.1644084</v>
       </c>
       <c r="E342">
-        <v>0.1503263</v>
+        <v>0.3151242</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -8585,16 +8585,16 @@
         </is>
       </c>
       <c r="B343">
-        <v>0.1177468</v>
+        <v>0.0692619</v>
       </c>
       <c r="C343">
-        <v>0.014941</v>
+        <v>0.0142251</v>
       </c>
       <c r="D343">
-        <v>0.09146799999999999</v>
+        <v>0.046063</v>
       </c>
       <c r="E343">
-        <v>0.1503263</v>
+        <v>0.1028844</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
